--- a/public/files/generated/product_report.xlsx
+++ b/public/files/generated/product_report.xlsx
@@ -15,7 +15,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
+  <si>
+    <t>01 COSMIC HANGING FILE / SUSPENSION FILE FS</t>
+  </si>
+  <si>
+    <t>FILES</t>
+  </si>
+  <si>
+    <t>02 CLIPP HANGING FILE / SUSPENSION FILE FS</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -353,7 +363,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -361,9 +371,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9.10" bestFit="true" style="0"/>
+    <col min="1" max="1" width="51.844482" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="6.998291" bestFit="true" customWidth="true" style="0"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="" right="" top="" bottom="" header="0.3" footer="0.3"/>
